--- a/results/FINAL_2060/4.GLUCOSE_new3_LowActivLimFF.xlsx
+++ b/results/FINAL_2060/4.GLUCOSE_new3_LowActivLimFF.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GitHub_repositories/KTH-dESA/GLUCOSE/results/FINAL_2060/4.2_2Degree/LowActivLimFF_noHP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnese/Documents/KTH-Work/GitHub_repositories/KTH-dESA/GLUCOSE/results/FINAL_2060/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D51E7A-1FCD-144E-A03E-2141BA21FC6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EC20C5-CA6A-8A4D-A85F-3A6C6571FEEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E352B8FF-0BB7-0949-88E1-300CBEB8D8D3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E352B8FF-0BB7-0949-88E1-300CBEB8D8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8244,7 +8244,7 @@
   <dimension ref="A1:AZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AZ15"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8617,7 +8617,7 @@
         <v>139.24760000000001</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="0"/>
+        <f>K5</f>
         <v>139.24760000000001</v>
       </c>
       <c r="M5" s="2">
@@ -8625,11 +8625,11 @@
         <v>132.28522000000001</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:AE5" si="1">M5+(($AF5-$L5)/20)</f>
+        <f>M5+(($AF5-$L5)/20)</f>
         <v>125.32284000000001</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N5:AE5" si="1">N5+(($AF5-$L5)/20)</f>
         <v>118.36046000000002</v>
       </c>
       <c r="P5" s="2">
@@ -8836,19 +8836,19 @@
         <v>130.5583</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="6"/>
+        <f>N6-4</f>
         <v>126.5583</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="6"/>
+        <f>O6-4</f>
         <v>122.5583</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="6"/>
+        <f>P6-4</f>
         <v>118.5583</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="6"/>
+        <f>Q6-4</f>
         <v>114.5583</v>
       </c>
       <c r="S6" s="4">
@@ -9017,15 +9017,15 @@
         <v>138.5583</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="7"/>
+        <f>M6</f>
         <v>134.5583</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="7"/>
+        <f>N6</f>
         <v>130.5583</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="7"/>
+        <f>O6</f>
         <v>126.5583</v>
       </c>
       <c r="P7" s="5">
@@ -10629,7 +10629,7 @@
         <v>80.549000000000007</v>
       </c>
       <c r="AR15" s="6">
-        <f t="shared" ref="AH15:AZ15" si="50">AQ15</f>
+        <f t="shared" ref="AR15:AZ15" si="50">AQ15</f>
         <v>80.549000000000007</v>
       </c>
       <c r="AS15" s="6">
